--- a/data/trans_orig/SE_ADU-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C7A711-70ED-429B-9A6C-F78276327CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B05FAC1-94B4-4CF0-B5DE-9DCAAE96F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B519F405-52CF-445C-8AD1-A211E99BD251}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF942C22-5F28-4D88-8411-7257CABB30CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="150">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>56,04%</t>
   </si>
   <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -107,10 +107,10 @@
     <t>43,96%</t>
   </si>
   <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -125,19 +125,19 @@
     <t>48,39%</t>
   </si>
   <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
   </si>
   <si>
     <t>51,61%</t>
   </si>
   <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -152,10 +152,10 @@
     <t>46,35%</t>
   </si>
   <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -167,10 +167,10 @@
     <t>53,65%</t>
   </si>
   <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -182,19 +182,19 @@
     <t>50,77%</t>
   </si>
   <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
   </si>
   <si>
     <t>49,23%</t>
   </si>
   <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -209,10 +209,10 @@
     <t>57,85%</t>
   </si>
   <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -221,10 +221,10 @@
     <t>42,15%</t>
   </si>
   <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -233,10 +233,10 @@
     <t>47,23%</t>
   </si>
   <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -245,10 +245,10 @@
     <t>52,77%</t>
   </si>
   <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -260,7 +260,7 @@
     <t>48,8%</t>
   </si>
   <si>
-    <t>45,29%</t>
+    <t>45,17%</t>
   </si>
   <si>
     <t>52,09%</t>
@@ -278,28 +278,22 @@
     <t>47,91%</t>
   </si>
   <si>
-    <t>54,71%</t>
+    <t>54,83%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>49,64%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -311,10 +305,10 @@
     <t>56,87%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -326,28 +320,28 @@
     <t>43,13%</t>
   </si>
   <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
   </si>
   <si>
     <t>48,92%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>51,08%</t>
   </si>
   <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -356,10 +350,10 @@
     <t>50,1%</t>
   </si>
   <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -368,28 +362,28 @@
     <t>49,9%</t>
   </si>
   <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
   </si>
   <si>
     <t>48,88%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
   </si>
   <si>
     <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
@@ -906,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1D8EB-DD2D-454F-B689-A8134FC7ADBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20B5865-A4C7-4FED-99AF-33BA7CF9C589}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1233,7 +1227,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -1284,7 +1278,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1543,7 +1537,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
@@ -1594,7 +1588,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -1657,7 +1651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D45942D-5FC5-4C36-8AA7-6915D4C75653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5A1185-3642-4227-B676-1E013A098CC3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2282,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2321,13 @@
         <v>3419782</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C45317C-ED6A-4C94-B63D-09688C7B454F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94052470-8421-4AFA-B69D-577AB4770EF3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2425,7 +2419,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2538,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>892</v>
@@ -2550,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2562,13 +2556,13 @@
         <v>994660</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2580,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -2604,7 +2598,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M5" s="7">
         <v>762</v>
@@ -2613,13 +2607,13 @@
         <v>754347</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,13 +2711,13 @@
         <v>1988300</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,13 +2762,13 @@
         <v>2076385</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,7 +2842,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
         <v>526</v>
@@ -2872,13 +2866,13 @@
         <v>549140</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,7 +2890,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -2923,13 +2917,13 @@
         <v>546886</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3021,13 @@
         <v>3532100</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3072,13 @@
         <v>3377618</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F578FD10-357F-4832-AA8C-1BBB9CC5E588}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F44666B-A0A4-4DFA-BA9C-ECBE11E63BEA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3176,7 +3170,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3289,7 +3283,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>1427</v>
@@ -3301,7 +3295,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -3313,13 +3307,13 @@
         <v>835952</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3331,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -3355,7 +3349,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>691</v>
@@ -3364,13 +3358,13 @@
         <v>541634</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,7 +3450,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3468,13 +3462,13 @@
         <v>2249521</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3504,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>1992</v>
@@ -3519,13 +3513,13 @@
         <v>2162022</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3593,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>1004</v>
@@ -3611,7 +3605,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3623,13 +3617,13 @@
         <v>713887</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,7 +3641,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -3665,7 +3659,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>681</v>
@@ -3674,13 +3668,13 @@
         <v>673039</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,7 +3760,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3778,13 +3772,13 @@
         <v>3799360</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3814,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>3364</v>
@@ -3829,13 +3823,13 @@
         <v>3376694</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/SE_ADU-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B05FAC1-94B4-4CF0-B5DE-9DCAAE96F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0E6A63F-6612-477A-BC60-7DC29A3AB160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF942C22-5F28-4D88-8411-7257CABB30CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43227F76-EED8-4748-8AEE-2C3CD928F735}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="148">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>56,04%</t>
   </si>
   <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -107,10 +107,10 @@
     <t>43,96%</t>
   </si>
   <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -128,13 +128,13 @@
     <t>46,57%</t>
   </si>
   <si>
-    <t>50,03%</t>
+    <t>50,2%</t>
   </si>
   <si>
     <t>51,61%</t>
   </si>
   <si>
-    <t>49,97%</t>
+    <t>49,8%</t>
   </si>
   <si>
     <t>53,43%</t>
@@ -152,10 +152,10 @@
     <t>46,35%</t>
   </si>
   <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -167,10 +167,10 @@
     <t>53,65%</t>
   </si>
   <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -182,19 +182,19 @@
     <t>50,77%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
   </si>
   <si>
     <t>49,23%</t>
   </si>
   <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -209,10 +209,10 @@
     <t>57,85%</t>
   </si>
   <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -221,10 +221,10 @@
     <t>42,15%</t>
   </si>
   <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -233,10 +233,10 @@
     <t>47,23%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -245,10 +245,10 @@
     <t>52,77%</t>
   </si>
   <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -260,10 +260,10 @@
     <t>48,8%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -275,22 +275,28 @@
     <t>51,2%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>49,64%</t>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>50,36%</t>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
   </si>
   <si>
     <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
@@ -305,10 +311,10 @@
     <t>56,87%</t>
   </si>
   <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -320,28 +326,22 @@
     <t>43,13%</t>
   </si>
   <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
   </si>
   <si>
     <t>48,92%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>50,5%</t>
   </si>
   <si>
     <t>51,08%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>49,5%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -350,10 +350,10 @@
     <t>50,1%</t>
   </si>
   <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -362,28 +362,22 @@
     <t>49,9%</t>
   </si>
   <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>52,2%</t>
   </si>
   <si>
     <t>48,88%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>47,8%</t>
   </si>
   <si>
     <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
@@ -398,10 +392,10 @@
     <t>60,68%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -413,10 +407,10 @@
     <t>39,32%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -425,10 +419,10 @@
     <t>50,99%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>0,07%</t>
@@ -437,10 +431,10 @@
     <t>49,01%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -449,10 +443,10 @@
     <t>51,47%</t>
   </si>
   <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
   </si>
   <si>
     <t>0,19%</t>
@@ -461,10 +455,10 @@
     <t>48,53%</t>
   </si>
   <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -473,10 +467,10 @@
     <t>52,94%</t>
   </si>
   <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -485,10 +479,10 @@
     <t>47,06%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
   </si>
 </sst>
 </file>
@@ -900,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20B5865-A4C7-4FED-99AF-33BA7CF9C589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD68BA8-80F1-4A4D-B22B-11A7D9E63DC2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1227,7 +1221,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -1278,7 +1272,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1537,7 +1531,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
@@ -1567,7 +1561,7 @@
         <v>3214</v>
       </c>
       <c r="N14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>49</v>
@@ -1588,7 +1582,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -1618,7 +1612,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -1651,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5A1185-3642-4227-B676-1E013A098CC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC701D7-7F45-401E-9C7E-D72234076372}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2276,7 +2270,7 @@
         <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2315,13 @@
         <v>3419782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,7 +2396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94052470-8421-4AFA-B69D-577AB4770EF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170B50-5D8D-4DB7-96B2-B53848C0EE2B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2419,7 +2413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2532,7 +2526,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>892</v>
@@ -2544,7 +2538,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2556,13 +2550,13 @@
         <v>994660</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2574,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -2598,7 +2592,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>762</v>
@@ -2607,13 +2601,13 @@
         <v>754347</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2705,13 @@
         <v>1988300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2756,13 @@
         <v>2076385</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,10 +3018,10 @@
         <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3066,13 @@
         <v>3377618</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F44666B-A0A4-4DFA-BA9C-ECBE11E63BEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE0853F-4B03-41EB-AFCB-E387F0D0AC33}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3170,7 +3164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3283,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
         <v>1427</v>
@@ -3295,7 +3289,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -3307,13 +3301,13 @@
         <v>835952</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3325,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -3349,7 +3343,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>691</v>
@@ -3358,13 +3352,13 @@
         <v>541634</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3438,13 @@
         <v>2921</v>
       </c>
       <c r="I7" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -3462,13 +3456,13 @@
         <v>2249521</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3498,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>1992</v>
@@ -3513,13 +3507,13 @@
         <v>2162022</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3540,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -3593,7 +3587,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>1004</v>
@@ -3605,7 +3599,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3617,13 +3611,13 @@
         <v>713887</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,7 +3635,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -3659,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>681</v>
@@ -3668,13 +3662,13 @@
         <v>673039</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3754,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3772,13 +3766,13 @@
         <v>3799360</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3784,7 @@
         <v>3364</v>
       </c>
       <c r="D14" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
@@ -3814,22 +3808,22 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>3364</v>
       </c>
       <c r="N14" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3835,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3871,7 +3865,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>

--- a/data/trans_orig/SE_ADU-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0E6A63F-6612-477A-BC60-7DC29A3AB160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F383C02-6AFC-4BE9-B85F-F15F8A928CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43227F76-EED8-4748-8AEE-2C3CD928F735}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E0C96CF0-2C16-4831-835A-7D76EE764A97}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -389,13 +389,13 @@
     <t>99,87%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -404,85 +404,85 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
   </si>
   <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD68BA8-80F1-4A4D-B22B-11A7D9E63DC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D2BC20-3C4C-4BFA-B392-D3974709284E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1045,7 +1045,7 @@
         <v>1291</v>
       </c>
       <c r="N4" s="7">
-        <v>1315113</v>
+        <v>1315112</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1147,7 +1147,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -1221,7 +1221,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -1272,7 +1272,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1495,7 +1495,7 @@
         <v>3297</v>
       </c>
       <c r="I13" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1531,7 +1531,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
@@ -1561,7 +1561,7 @@
         <v>3214</v>
       </c>
       <c r="N14" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>49</v>
@@ -1582,7 +1582,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -1597,7 +1597,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -1612,7 +1612,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -1645,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC701D7-7F45-401E-9C7E-D72234076372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD188DDD-A05E-45A1-BB31-D929F89425F1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1781,7 +1781,7 @@
         <v>1247</v>
       </c>
       <c r="I4" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -1883,7 +1883,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -2157,7 +2157,7 @@
         <v>438</v>
       </c>
       <c r="N11" s="7">
-        <v>481181</v>
+        <v>481182</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -2208,7 +2208,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -2396,7 +2396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170B50-5D8D-4DB7-96B2-B53848C0EE2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866F622D-31DA-4EF1-AAEA-830CE2A30762}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2857,7 +2857,7 @@
         <v>526</v>
       </c>
       <c r="N10" s="7">
-        <v>549140</v>
+        <v>549141</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>102</v>
@@ -2959,7 +2959,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -3147,7 +3147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE0853F-4B03-41EB-AFCB-E387F0D0AC33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4B3589-0530-49BB-9DB0-A1924CF5272C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3283,7 +3283,7 @@
         <v>1427</v>
       </c>
       <c r="I4" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -3298,7 +3298,7 @@
         <v>1427</v>
       </c>
       <c r="N4" s="7">
-        <v>835952</v>
+        <v>755508</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>116</v>
@@ -3319,7 +3319,7 @@
         <v>691</v>
       </c>
       <c r="D5" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -3349,7 +3349,7 @@
         <v>691</v>
       </c>
       <c r="N5" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>121</v>
@@ -3370,7 +3370,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -3385,7 +3385,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -3400,7 +3400,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -3438,7 +3438,7 @@
         <v>2921</v>
       </c>
       <c r="I7" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -3453,7 +3453,7 @@
         <v>2921</v>
       </c>
       <c r="N7" s="7">
-        <v>2249521</v>
+        <v>2237823</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>125</v>
@@ -3474,7 +3474,7 @@
         <v>1992</v>
       </c>
       <c r="D8" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -3504,7 +3504,7 @@
         <v>1992</v>
       </c>
       <c r="N8" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>129</v>
@@ -3525,7 +3525,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -3540,7 +3540,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -3555,7 +3555,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -3593,7 +3593,7 @@
         <v>1004</v>
       </c>
       <c r="I10" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
@@ -3608,7 +3608,7 @@
         <v>1004</v>
       </c>
       <c r="N10" s="7">
-        <v>713887</v>
+        <v>660463</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>133</v>
@@ -3629,7 +3629,7 @@
         <v>681</v>
       </c>
       <c r="D11" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -3659,7 +3659,7 @@
         <v>681</v>
       </c>
       <c r="N11" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>137</v>
@@ -3680,7 +3680,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -3695,7 +3695,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -3710,7 +3710,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -3748,7 +3748,7 @@
         <v>5352</v>
       </c>
       <c r="I13" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -3763,7 +3763,7 @@
         <v>5352</v>
       </c>
       <c r="N13" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>141</v>
@@ -3784,7 +3784,7 @@
         <v>3364</v>
       </c>
       <c r="D14" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
@@ -3814,7 +3814,7 @@
         <v>3364</v>
       </c>
       <c r="N14" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>145</v>
@@ -3835,7 +3835,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3850,7 +3850,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3865,7 +3865,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
